--- a/data/model_1.xlsx
+++ b/data/model_1.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinhht/ai_projects/survey_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7BCE2-EFAE-F340-96FD-C4E806AD11FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC26F16-9A95-8E4F-A93D-4C899833A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1200" yWindow="-14020" windowWidth="23480" windowHeight="11320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic_Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Observable_Variables" sheetId="2" r:id="rId2"/>
-    <sheet name="Latent_Variables" sheetId="3" r:id="rId3"/>
+    <sheet name="Construct_Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Dependent_Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Relations" sheetId="7" r:id="rId5"/>
+    <sheet name="VarCovar_Relations" sheetId="5" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -155,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +190,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,11 +262,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,9 +315,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9136E9E6-237C-7E43-BDB0-3CCFC8126AD0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,7 +543,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4606,7 +4638,9 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8662,10 +8696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8677,7 +8711,7 @@
     <col min="5" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8691,7 +8725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -8707,12 +8741,6 @@
       </c>
       <c r="E2" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9709,7 +9737,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13748,6 +13776,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0181199-633D-D441-80F8-CF4E7B3FBF2D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -14774,11 +14846,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
